--- a/simulation/robotstudio_sim/scripts/fitting_output/threshold1/comparison.xlsx
+++ b/simulation/robotstudio_sim/scripts/fitting_output/threshold1/comparison.xlsx
@@ -489,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.508826984469728</v>
+        <v>1.407504946553948</v>
       </c>
       <c r="C11">
         <v>3.105483705705272</v>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1.516270285349551</v>
+        <v>1.406470647947109</v>
       </c>
       <c r="C12">
         <v>2.930957362849295</v>
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>1.516270285349551</v>
+        <v>1.406803825482189</v>
       </c>
       <c r="C13">
         <v>2.562228354345849</v>
@@ -547,13 +547,13 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>35.536</v>
+        <v>35.67599999999999</v>
       </c>
       <c r="C16">
-        <v>5.096000000000001</v>
+        <v>5.236</v>
       </c>
       <c r="D16">
-        <v>3.736</v>
+        <v>3.876</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -561,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>34.224</v>
+        <v>34.364</v>
       </c>
       <c r="C17">
-        <v>3.288</v>
+        <v>3.428</v>
       </c>
       <c r="D17">
-        <v>1.596000000000001</v>
+        <v>1.736</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -575,13 +575,13 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>34.008</v>
+        <v>34.148</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="D18">
-        <v>1.164</v>
+        <v>1.303999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>137.2108440221711</v>
+        <v>51.71679124218015</v>
       </c>
       <c r="C21">
-        <v>505.2281098511939</v>
+        <v>505.2281098514183</v>
       </c>
       <c r="D21">
         <v>1455.356206008163</v>
@@ -619,10 +619,10 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>138.2534614319332</v>
+        <v>54.13882694196583</v>
       </c>
       <c r="C22">
-        <v>505.0206523949179</v>
+        <v>505.02065239503</v>
       </c>
       <c r="D22">
         <v>1457.537122392374</v>
@@ -633,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>138.2534614316876</v>
+        <v>51.68943821428824</v>
       </c>
       <c r="C23">
         <v>516.0005207224229</v>
@@ -663,13 +663,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>6.931387609124879</v>
+        <v>0.9054188592841207</v>
       </c>
       <c r="C26">
-        <v>4.725702170722219</v>
+        <v>0.9054188592837187</v>
       </c>
       <c r="D26">
-        <v>5.047479010166972</v>
+        <v>0.9054188592837187</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -677,13 +677,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>6.942932201836141</v>
+        <v>0.9054188592841207</v>
       </c>
       <c r="C27">
-        <v>9.543179790955152</v>
+        <v>0.9054188592837187</v>
       </c>
       <c r="D27">
-        <v>4.662942621757979</v>
+        <v>0.9054188592835176</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -691,13 +691,13 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>6.942932201823808</v>
+        <v>0.9054188592841207</v>
       </c>
       <c r="C28">
-        <v>9.54317979095727</v>
+        <v>0.9054188592837187</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.9054188592837187</v>
       </c>
     </row>
   </sheetData>

--- a/simulation/robotstudio_sim/scripts/fitting_output/threshold1/comparison.xlsx
+++ b/simulation/robotstudio_sim/scripts/fitting_output/threshold1/comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
     <t>max_error1</t>
   </si>
@@ -40,6 +40,12 @@
     <t>max_error2</t>
   </si>
   <si>
+    <t>max_error1_idx</t>
+  </si>
+  <si>
+    <t>max_error2_idx</t>
+  </si>
+  <si>
     <t>total_time</t>
   </si>
   <si>
@@ -47,6 +53,12 @@
   </si>
   <si>
     <t>min_speed</t>
+  </si>
+  <si>
+    <t>jacobian_min_sing</t>
+  </si>
+  <si>
+    <t>jacobian_min_sing_idx</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:D28"/>
+  <dimension ref="A4:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +532,7 @@
         <v>1.406803825482189</v>
       </c>
       <c r="C13">
-        <v>2.562228354345849</v>
+        <v>2.600831514141518</v>
       </c>
       <c r="D13">
         <v>3.917290366760004</v>
@@ -547,13 +559,13 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>35.67599999999999</v>
+        <v>2642</v>
       </c>
       <c r="C16">
-        <v>5.236</v>
+        <v>201</v>
       </c>
       <c r="D16">
-        <v>3.876</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -561,13 +573,13 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>34.364</v>
+        <v>5471</v>
       </c>
       <c r="C17">
-        <v>3.428</v>
+        <v>200</v>
       </c>
       <c r="D17">
-        <v>1.736</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -575,13 +587,13 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>34.148</v>
+        <v>5456</v>
       </c>
       <c r="C18">
-        <v>3.14</v>
+        <v>202</v>
       </c>
       <c r="D18">
-        <v>1.303999999999999</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -605,13 +617,13 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>51.71679124218015</v>
+        <v>5666</v>
       </c>
       <c r="C21">
-        <v>505.2281098514183</v>
+        <v>202</v>
       </c>
       <c r="D21">
-        <v>1455.356206008163</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -619,13 +631,13 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>54.13882694196583</v>
+        <v>5571</v>
       </c>
       <c r="C22">
-        <v>505.02065239503</v>
+        <v>200</v>
       </c>
       <c r="D22">
-        <v>1457.537122392374</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -633,13 +645,13 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>51.68943821428824</v>
+        <v>5576</v>
       </c>
       <c r="C23">
-        <v>516.0005207224229</v>
+        <v>896</v>
       </c>
       <c r="D23">
-        <v>1531.806970137343</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -663,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>0.9054188592841207</v>
+        <v>35.676</v>
       </c>
       <c r="C26">
-        <v>0.9054188592837187</v>
+        <v>5.236</v>
       </c>
       <c r="D26">
-        <v>0.9054188592837187</v>
+        <v>3.876</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -677,13 +689,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>0.9054188592841207</v>
+        <v>34.996</v>
       </c>
       <c r="C27">
-        <v>0.9054188592837187</v>
+        <v>4.159999999999999</v>
       </c>
       <c r="D27">
-        <v>0.9054188592835176</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -691,13 +703,245 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>0.9054188592841207</v>
+        <v>34.984</v>
       </c>
       <c r="C28">
+        <v>3.883999999999999</v>
+      </c>
+      <c r="D28">
+        <v>2.332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>51.71679124208828</v>
+      </c>
+      <c r="C31">
+        <v>505.2281098514183</v>
+      </c>
+      <c r="D31">
+        <v>1455.356206008163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>54.13882694186967</v>
+      </c>
+      <c r="C32">
+        <v>404.0165219160599</v>
+      </c>
+      <c r="D32">
+        <v>1457.537122392374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>51.68943821419643</v>
+      </c>
+      <c r="C33">
+        <v>412.8004165779751</v>
+      </c>
+      <c r="D33">
+        <v>1531.806970137003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>0.9054188592825124</v>
+      </c>
+      <c r="C36">
         <v>0.9054188592837187</v>
       </c>
-      <c r="D28">
+      <c r="D36">
         <v>0.9054188592837187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>0.9054188592825124</v>
+      </c>
+      <c r="C37">
+        <v>0.7243350874270392</v>
+      </c>
+      <c r="D37">
+        <v>0.9054188592835176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>0.9054188592825124</v>
+      </c>
+      <c r="C38">
+        <v>0.7243350874270392</v>
+      </c>
+      <c r="D38">
+        <v>0.9054188592835176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>0.3878410284861738</v>
+      </c>
+      <c r="C41">
+        <v>0.3878410284861738</v>
+      </c>
+      <c r="D41">
+        <v>0.3878410284861738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>0.3878410284861738</v>
+      </c>
+      <c r="C42">
+        <v>0.3878410284861738</v>
+      </c>
+      <c r="D42">
+        <v>0.3878410284861738</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>0.3878410284861738</v>
+      </c>
+      <c r="C43">
+        <v>0.3878410284861738</v>
+      </c>
+      <c r="D43">
+        <v>0.3878410284861738</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>44</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/simulation/robotstudio_sim/scripts/fitting_output/threshold1/comparison.xlsx
+++ b/simulation/robotstudio_sim/scripts/fitting_output/threshold1/comparison.xlsx
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.590813937188924</v>
+        <v>1.553497393133581</v>
       </c>
       <c r="C6">
         <v>2.99695838713741</v>
@@ -457,13 +457,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.479290060988933</v>
+        <v>1.475822034885709</v>
       </c>
       <c r="C7">
-        <v>2.830833478879278</v>
+        <v>2.827721398160278</v>
       </c>
       <c r="D7">
-        <v>3.997045582695917</v>
+        <v>3.998330994297695</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -471,13 +471,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.480289747598458</v>
+        <v>1.476689023673729</v>
       </c>
       <c r="C8">
-        <v>2.487929605482865</v>
+        <v>2.478423133922318</v>
       </c>
       <c r="D8">
-        <v>3.820059603739769</v>
+        <v>3.817578840291475</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.407504946553948</v>
+        <v>1.405096014887963</v>
       </c>
       <c r="C11">
         <v>3.105483705705272</v>
@@ -515,13 +515,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1.406470647947109</v>
+        <v>1.403858227339003</v>
       </c>
       <c r="C12">
-        <v>2.930957362849295</v>
+        <v>2.927767977121277</v>
       </c>
       <c r="D12">
-        <v>4.118764560918359</v>
+        <v>4.120099515008429</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -529,13 +529,13 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>1.406803825482189</v>
+        <v>1.405209884427531</v>
       </c>
       <c r="C13">
-        <v>2.600831514141518</v>
+        <v>2.596390667398716</v>
       </c>
       <c r="D13">
-        <v>3.917290366760004</v>
+        <v>3.915060627679262</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -559,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>2642</v>
+        <v>2626</v>
       </c>
       <c r="C16">
         <v>201</v>
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>5471</v>
+        <v>5473</v>
       </c>
       <c r="C17">
         <v>200</v>
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>5456</v>
+        <v>5473</v>
       </c>
       <c r="C18">
         <v>202</v>
@@ -631,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>5571</v>
+        <v>5570</v>
       </c>
       <c r="C22">
         <v>200</v>
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>5576</v>
+        <v>5569</v>
       </c>
       <c r="C23">
         <v>896</v>
@@ -675,10 +675,10 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>35.676</v>
+        <v>35.68</v>
       </c>
       <c r="C26">
-        <v>5.236</v>
+        <v>5.248</v>
       </c>
       <c r="D26">
         <v>3.876</v>
@@ -689,13 +689,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>34.996</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>4.159999999999999</v>
       </c>
       <c r="D27">
-        <v>2.74</v>
+        <v>2.739999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -706,7 +706,7 @@
         <v>34.984</v>
       </c>
       <c r="C28">
-        <v>3.883999999999999</v>
+        <v>3.883</v>
       </c>
       <c r="D28">
         <v>2.332</v>
@@ -733,10 +733,10 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>51.71679124208828</v>
+        <v>51.71679124218015</v>
       </c>
       <c r="C31">
-        <v>505.2281098514183</v>
+        <v>505.2281098511939</v>
       </c>
       <c r="D31">
         <v>1455.356206008163</v>
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>54.13882694186967</v>
+        <v>54.01529142344036</v>
       </c>
       <c r="C32">
-        <v>404.0165219160599</v>
+        <v>637.3127427921767</v>
       </c>
       <c r="D32">
-        <v>1457.537122392374</v>
+        <v>1457.537122392697</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -764,10 +764,10 @@
         <v>51.68943821419643</v>
       </c>
       <c r="C33">
-        <v>412.8004165779751</v>
+        <v>688.6188099836031</v>
       </c>
       <c r="D33">
-        <v>1531.806970137003</v>
+        <v>1523.231573226945</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -791,10 +791,10 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>0.9054188592825124</v>
+        <v>0.9054188592841207</v>
       </c>
       <c r="C36">
-        <v>0.9054188592837187</v>
+        <v>0.9054188592833166</v>
       </c>
       <c r="D36">
         <v>0.9054188592837187</v>
@@ -811,7 +811,7 @@
         <v>0.7243350874270392</v>
       </c>
       <c r="D37">
-        <v>0.9054188592835176</v>
+        <v>0.9054188592837187</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -822,7 +822,7 @@
         <v>0.9054188592825124</v>
       </c>
       <c r="C38">
-        <v>0.7243350874270392</v>
+        <v>1.207225145711446</v>
       </c>
       <c r="D38">
         <v>0.9054188592835176</v>
